--- a/QMBE_3750.xlsx
+++ b/QMBE_3750.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annikalindgren/Desktop/QMBE_3730_Annika_Lindgren_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9B9E2F-6D97-C342-90AA-36A6C7AC9BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63326447-30B1-904E-B4B2-D747DDD865FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{26F2CCF9-61E5-A44B-85AB-E9D21D533BDD}"/>
   </bookViews>
